--- a/jpcore-r4/feature/改行テスト/StructureDefinition-jp-medicationrange-unitoftime.xlsx
+++ b/jpcore-r4/feature/改行テスト/StructureDefinition-jp-medicationrange-unitoftime.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="685" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="685" uniqueCount="132">
   <si>
     <t>Property</t>
   </si>
@@ -150,10 +150,6 @@
   <si>
     <t xml:space="preserve">ele-1
 </t>
-  </si>
-  <si>
-    <t>ele-1:すべてのFHIR要素には、@valueまたは子供が必要です / All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-rng-2:存在する場合、低い値は高よりも低い値を持つものとします / If present, low SHALL have a lower value than high {low.empty() or high.empty() or (low &lt;= high)}</t>
   </si>
   <si>
     <t>NR and also possibly SN (but see also quantity)</t>
@@ -878,21 +874,21 @@
         <v>44</v>
       </c>
       <c r="AJ1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK1" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="AK1" t="s" s="2">
+      <c r="AL1" t="s" s="2">
         <v>46</v>
-      </c>
-      <c r="AL1" t="s" s="2">
-        <v>47</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
@@ -903,25 +899,25 @@
         <v>39</v>
       </c>
       <c r="G2" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="H2" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I2" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J2" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K2" t="s" s="2">
         <v>49</v>
       </c>
-      <c r="H2" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I2" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J2" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="K2" t="s" s="2">
+      <c r="L2" t="s" s="2">
         <v>50</v>
       </c>
-      <c r="L2" t="s" s="2">
+      <c r="M2" t="s" s="2">
         <v>51</v>
-      </c>
-      <c r="M2" t="s" s="2">
-        <v>52</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
@@ -972,37 +968,37 @@
         <v>38</v>
       </c>
       <c r="AF2" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AG2" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH2" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AI2" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ2" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK2" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL2" t="s" s="2">
         <v>53</v>
-      </c>
-      <c r="AG2" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH2" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AI2" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ2" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AK2" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL2" t="s" s="2">
-        <v>54</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
@@ -1021,16 +1017,16 @@
         <v>38</v>
       </c>
       <c r="K3" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="L3" t="s" s="2">
         <v>57</v>
       </c>
-      <c r="L3" t="s" s="2">
+      <c r="M3" t="s" s="2">
         <v>58</v>
       </c>
-      <c r="M3" t="s" s="2">
+      <c r="N3" t="s" s="2">
         <v>59</v>
-      </c>
-      <c r="N3" t="s" s="2">
-        <v>60</v>
       </c>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
@@ -1068,19 +1064,19 @@
         <v>38</v>
       </c>
       <c r="AB3" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="AC3" t="s" s="2">
         <v>61</v>
       </c>
-      <c r="AC3" t="s" s="2">
+      <c r="AD3" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE3" t="s" s="2">
         <v>62</v>
       </c>
-      <c r="AD3" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE3" t="s" s="2">
+      <c r="AF3" t="s" s="2">
         <v>63</v>
-      </c>
-      <c r="AF3" t="s" s="2">
-        <v>64</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>39</v>
@@ -1092,21 +1088,21 @@
         <v>38</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="AK3" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL3" t="s" s="2">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -1117,7 +1113,7 @@
         <v>39</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>38</v>
@@ -1126,19 +1122,19 @@
         <v>38</v>
       </c>
       <c r="J4" t="s" s="2">
+        <v>66</v>
+      </c>
+      <c r="K4" t="s" s="2">
         <v>67</v>
       </c>
-      <c r="K4" t="s" s="2">
+      <c r="L4" t="s" s="2">
         <v>68</v>
       </c>
-      <c r="L4" t="s" s="2">
+      <c r="M4" t="s" s="2">
         <v>69</v>
       </c>
-      <c r="M4" t="s" s="2">
+      <c r="N4" t="s" s="2">
         <v>70</v>
-      </c>
-      <c r="N4" t="s" s="2">
-        <v>71</v>
       </c>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
@@ -1188,33 +1184,33 @@
         <v>38</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ4" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AK4" t="s" s="2">
         <v>72</v>
       </c>
-      <c r="AK4" t="s" s="2">
+      <c r="AL4" t="s" s="2">
         <v>73</v>
-      </c>
-      <c r="AL4" t="s" s="2">
-        <v>74</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -1225,25 +1221,25 @@
         <v>39</v>
       </c>
       <c r="G5" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="H5" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I5" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J5" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K5" t="s" s="2">
         <v>49</v>
       </c>
-      <c r="H5" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I5" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J5" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="K5" t="s" s="2">
+      <c r="L5" t="s" s="2">
         <v>50</v>
       </c>
-      <c r="L5" t="s" s="2">
+      <c r="M5" t="s" s="2">
         <v>51</v>
-      </c>
-      <c r="M5" t="s" s="2">
-        <v>52</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
@@ -1294,37 +1290,37 @@
         <v>38</v>
       </c>
       <c r="AF5" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AG5" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH5" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AI5" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ5" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK5" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL5" t="s" s="2">
         <v>53</v>
-      </c>
-      <c r="AG5" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH5" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AI5" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ5" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AK5" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL5" t="s" s="2">
-        <v>54</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
@@ -1343,16 +1339,16 @@
         <v>38</v>
       </c>
       <c r="K6" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="L6" t="s" s="2">
         <v>57</v>
       </c>
-      <c r="L6" t="s" s="2">
+      <c r="M6" t="s" s="2">
         <v>58</v>
       </c>
-      <c r="M6" t="s" s="2">
+      <c r="N6" t="s" s="2">
         <v>59</v>
-      </c>
-      <c r="N6" t="s" s="2">
-        <v>60</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -1390,19 +1386,19 @@
         <v>38</v>
       </c>
       <c r="AB6" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="AC6" t="s" s="2">
         <v>61</v>
       </c>
-      <c r="AC6" t="s" s="2">
+      <c r="AD6" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE6" t="s" s="2">
         <v>62</v>
       </c>
-      <c r="AD6" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE6" t="s" s="2">
+      <c r="AF6" t="s" s="2">
         <v>63</v>
-      </c>
-      <c r="AF6" t="s" s="2">
-        <v>64</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>39</v>
@@ -1414,21 +1410,21 @@
         <v>38</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
@@ -1439,7 +1435,7 @@
         <v>39</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H7" t="s" s="2">
         <v>38</v>
@@ -1448,22 +1444,22 @@
         <v>38</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K7" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="L7" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="M7" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="N7" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="L7" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="M7" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="N7" t="s" s="2">
+      <c r="O7" t="s" s="2">
         <v>79</v>
-      </c>
-      <c r="O7" t="s" s="2">
-        <v>80</v>
       </c>
       <c r="P7" t="s" s="2">
         <v>38</v>
@@ -1512,33 +1508,33 @@
         <v>38</v>
       </c>
       <c r="AF7" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AG7" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH7" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AI7" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ7" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AK7" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="AG7" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH7" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AI7" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ7" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AK7" t="s" s="2">
+      <c r="AL7" t="s" s="2">
         <v>82</v>
-      </c>
-      <c r="AL7" t="s" s="2">
-        <v>83</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
@@ -1555,100 +1551,100 @@
         <v>38</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K8" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="L8" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="L8" t="s" s="2">
+      <c r="M8" t="s" s="2">
         <v>86</v>
-      </c>
-      <c r="M8" t="s" s="2">
-        <v>87</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="P8" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Q8" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="P8" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Q8" t="s" s="2">
+      <c r="R8" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S8" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T8" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U8" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V8" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W8" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X8" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="R8" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="S8" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="T8" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="U8" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V8" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W8" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X8" t="s" s="2">
+      <c r="Y8" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="Y8" t="s" s="2">
+      <c r="Z8" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="Z8" t="s" s="2">
+      <c r="AA8" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB8" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC8" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD8" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE8" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF8" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="AA8" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB8" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC8" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD8" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE8" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF8" t="s" s="2">
+      <c r="AG8" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH8" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AI8" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ8" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AK8" t="s" s="2">
         <v>93</v>
       </c>
-      <c r="AG8" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH8" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AI8" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ8" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AK8" t="s" s="2">
+      <c r="AL8" t="s" s="2">
         <v>94</v>
-      </c>
-      <c r="AL8" t="s" s="2">
-        <v>95</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -1659,29 +1655,29 @@
         <v>39</v>
       </c>
       <c r="G9" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="H9" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I9" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J9" t="s" s="2">
+        <v>66</v>
+      </c>
+      <c r="K9" t="s" s="2">
         <v>49</v>
       </c>
-      <c r="H9" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I9" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J9" t="s" s="2">
-        <v>67</v>
-      </c>
-      <c r="K9" t="s" s="2">
-        <v>50</v>
-      </c>
       <c r="L9" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="M9" t="s" s="2">
         <v>97</v>
-      </c>
-      <c r="M9" t="s" s="2">
-        <v>98</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="P9" t="s" s="2">
         <v>38</v>
@@ -1730,33 +1726,33 @@
         <v>38</v>
       </c>
       <c r="AF9" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AG9" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH9" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AI9" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ9" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AK9" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="AG9" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH9" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AI9" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ9" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AK9" t="s" s="2">
+      <c r="AL9" t="s" s="2">
         <v>101</v>
-      </c>
-      <c r="AL9" t="s" s="2">
-        <v>102</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
@@ -1767,7 +1763,7 @@
         <v>39</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>38</v>
@@ -1776,20 +1772,20 @@
         <v>38</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K10" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="L10" t="s" s="2">
         <v>104</v>
       </c>
-      <c r="L10" t="s" s="2">
+      <c r="M10" t="s" s="2">
         <v>105</v>
-      </c>
-      <c r="M10" t="s" s="2">
-        <v>106</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>38</v>
@@ -1838,33 +1834,33 @@
         <v>38</v>
       </c>
       <c r="AF10" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="AG10" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH10" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AI10" t="s" s="2">
         <v>108</v>
       </c>
-      <c r="AG10" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH10" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AI10" t="s" s="2">
+      <c r="AJ10" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AK10" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AL10" t="s" s="2">
         <v>109</v>
-      </c>
-      <c r="AJ10" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AK10" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AL10" t="s" s="2">
-        <v>110</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -1875,7 +1871,7 @@
         <v>39</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>38</v>
@@ -1884,22 +1880,22 @@
         <v>38</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L11" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="M11" t="s" s="2">
         <v>112</v>
       </c>
-      <c r="M11" t="s" s="2">
+      <c r="N11" t="s" s="2">
         <v>113</v>
       </c>
-      <c r="N11" t="s" s="2">
+      <c r="O11" t="s" s="2">
         <v>114</v>
-      </c>
-      <c r="O11" t="s" s="2">
-        <v>115</v>
       </c>
       <c r="P11" t="s" s="2">
         <v>38</v>
@@ -1924,55 +1920,55 @@
         <v>38</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="Y11" s="2"/>
       <c r="Z11" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="AA11" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB11" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC11" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD11" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE11" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF11" t="s" s="2">
         <v>117</v>
       </c>
-      <c r="AA11" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB11" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC11" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD11" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE11" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF11" t="s" s="2">
+      <c r="AG11" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH11" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AI11" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ11" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AK11" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AL11" t="s" s="2">
         <v>118</v>
-      </c>
-      <c r="AG11" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH11" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AI11" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ11" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AK11" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AL11" t="s" s="2">
-        <v>119</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -1983,7 +1979,7 @@
         <v>39</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>38</v>
@@ -1992,19 +1988,19 @@
         <v>38</v>
       </c>
       <c r="J12" t="s" s="2">
+        <v>66</v>
+      </c>
+      <c r="K12" t="s" s="2">
         <v>67</v>
       </c>
-      <c r="K12" t="s" s="2">
-        <v>68</v>
-      </c>
       <c r="L12" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="M12" t="s" s="2">
         <v>121</v>
       </c>
-      <c r="M12" t="s" s="2">
+      <c r="N12" t="s" s="2">
         <v>122</v>
-      </c>
-      <c r="N12" t="s" s="2">
-        <v>123</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
@@ -2054,33 +2050,33 @@
         <v>38</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AI12" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AK12" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="AL12" t="s" s="2">
         <v>124</v>
-      </c>
-      <c r="AL12" t="s" s="2">
-        <v>125</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -2091,25 +2087,25 @@
         <v>39</v>
       </c>
       <c r="G13" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="H13" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I13" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J13" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K13" t="s" s="2">
         <v>49</v>
       </c>
-      <c r="H13" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I13" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J13" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="K13" t="s" s="2">
+      <c r="L13" t="s" s="2">
         <v>50</v>
       </c>
-      <c r="L13" t="s" s="2">
+      <c r="M13" t="s" s="2">
         <v>51</v>
-      </c>
-      <c r="M13" t="s" s="2">
-        <v>52</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
@@ -2160,37 +2156,37 @@
         <v>38</v>
       </c>
       <c r="AF13" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AG13" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH13" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AI13" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ13" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK13" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL13" t="s" s="2">
         <v>53</v>
-      </c>
-      <c r="AG13" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH13" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AI13" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ13" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AK13" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL13" t="s" s="2">
-        <v>54</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
@@ -2209,16 +2205,16 @@
         <v>38</v>
       </c>
       <c r="K14" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="L14" t="s" s="2">
         <v>57</v>
       </c>
-      <c r="L14" t="s" s="2">
+      <c r="M14" t="s" s="2">
         <v>58</v>
       </c>
-      <c r="M14" t="s" s="2">
+      <c r="N14" t="s" s="2">
         <v>59</v>
-      </c>
-      <c r="N14" t="s" s="2">
-        <v>60</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -2256,19 +2252,19 @@
         <v>38</v>
       </c>
       <c r="AB14" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="AC14" t="s" s="2">
         <v>61</v>
       </c>
-      <c r="AC14" t="s" s="2">
+      <c r="AD14" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE14" t="s" s="2">
         <v>62</v>
       </c>
-      <c r="AD14" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE14" t="s" s="2">
+      <c r="AF14" t="s" s="2">
         <v>63</v>
-      </c>
-      <c r="AF14" t="s" s="2">
-        <v>64</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>39</v>
@@ -2280,21 +2276,21 @@
         <v>38</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -2305,7 +2301,7 @@
         <v>39</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>38</v>
@@ -2314,22 +2310,22 @@
         <v>38</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K15" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="L15" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="M15" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="N15" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="L15" t="s" s="2">
-        <v>121</v>
-      </c>
-      <c r="M15" t="s" s="2">
-        <v>121</v>
-      </c>
-      <c r="N15" t="s" s="2">
+      <c r="O15" t="s" s="2">
         <v>79</v>
-      </c>
-      <c r="O15" t="s" s="2">
-        <v>80</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>38</v>
@@ -2378,33 +2374,33 @@
         <v>38</v>
       </c>
       <c r="AF15" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AG15" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH15" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AI15" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ15" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AK15" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="AG15" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH15" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AI15" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ15" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AK15" t="s" s="2">
+      <c r="AL15" t="s" s="2">
         <v>82</v>
-      </c>
-      <c r="AL15" t="s" s="2">
-        <v>83</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -2421,100 +2417,100 @@
         <v>38</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K16" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="L16" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="L16" t="s" s="2">
+      <c r="M16" t="s" s="2">
         <v>86</v>
-      </c>
-      <c r="M16" t="s" s="2">
-        <v>87</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="P16" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Q16" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="P16" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Q16" t="s" s="2">
+      <c r="R16" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S16" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T16" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U16" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V16" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W16" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X16" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="R16" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="S16" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="T16" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="U16" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V16" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W16" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X16" t="s" s="2">
+      <c r="Y16" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="Y16" t="s" s="2">
+      <c r="Z16" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="Z16" t="s" s="2">
+      <c r="AA16" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB16" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC16" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD16" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE16" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF16" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="AA16" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB16" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC16" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD16" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE16" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF16" t="s" s="2">
+      <c r="AG16" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH16" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AI16" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ16" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AK16" t="s" s="2">
         <v>93</v>
       </c>
-      <c r="AG16" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH16" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AI16" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ16" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AK16" t="s" s="2">
+      <c r="AL16" t="s" s="2">
         <v>94</v>
-      </c>
-      <c r="AL16" t="s" s="2">
-        <v>95</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -2525,29 +2521,29 @@
         <v>39</v>
       </c>
       <c r="G17" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="H17" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I17" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J17" t="s" s="2">
+        <v>66</v>
+      </c>
+      <c r="K17" t="s" s="2">
         <v>49</v>
       </c>
-      <c r="H17" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I17" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J17" t="s" s="2">
-        <v>67</v>
-      </c>
-      <c r="K17" t="s" s="2">
-        <v>50</v>
-      </c>
       <c r="L17" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="M17" t="s" s="2">
         <v>97</v>
-      </c>
-      <c r="M17" t="s" s="2">
-        <v>98</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="P17" t="s" s="2">
         <v>38</v>
@@ -2596,33 +2592,33 @@
         <v>38</v>
       </c>
       <c r="AF17" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AG17" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH17" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AI17" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ17" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AK17" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="AG17" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH17" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AI17" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ17" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AK17" t="s" s="2">
+      <c r="AL17" t="s" s="2">
         <v>101</v>
-      </c>
-      <c r="AL17" t="s" s="2">
-        <v>102</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -2633,7 +2629,7 @@
         <v>39</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>38</v>
@@ -2642,20 +2638,20 @@
         <v>38</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K18" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="L18" t="s" s="2">
         <v>104</v>
       </c>
-      <c r="L18" t="s" s="2">
+      <c r="M18" t="s" s="2">
         <v>105</v>
-      </c>
-      <c r="M18" t="s" s="2">
-        <v>106</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="P18" t="s" s="2">
         <v>38</v>
@@ -2704,33 +2700,33 @@
         <v>38</v>
       </c>
       <c r="AF18" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="AG18" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH18" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AI18" t="s" s="2">
         <v>108</v>
       </c>
-      <c r="AG18" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH18" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AI18" t="s" s="2">
+      <c r="AJ18" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AK18" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AL18" t="s" s="2">
         <v>109</v>
-      </c>
-      <c r="AJ18" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AK18" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AL18" t="s" s="2">
-        <v>110</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -2741,7 +2737,7 @@
         <v>39</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>38</v>
@@ -2750,22 +2746,22 @@
         <v>38</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L19" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="M19" t="s" s="2">
         <v>112</v>
       </c>
-      <c r="M19" t="s" s="2">
+      <c r="N19" t="s" s="2">
         <v>113</v>
       </c>
-      <c r="N19" t="s" s="2">
+      <c r="O19" t="s" s="2">
         <v>114</v>
-      </c>
-      <c r="O19" t="s" s="2">
-        <v>115</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>38</v>
@@ -2790,47 +2786,47 @@
         <v>38</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="Y19" s="2"/>
       <c r="Z19" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="AA19" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB19" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC19" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD19" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE19" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF19" t="s" s="2">
         <v>117</v>
       </c>
-      <c r="AA19" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB19" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC19" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD19" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE19" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF19" t="s" s="2">
+      <c r="AG19" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH19" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AI19" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ19" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AK19" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AL19" t="s" s="2">
         <v>118</v>
-      </c>
-      <c r="AG19" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH19" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AI19" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ19" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AK19" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AL19" t="s" s="2">
-        <v>119</v>
       </c>
     </row>
   </sheetData>
